--- a/backend/fixedFiles/base_profile.xlsx
+++ b/backend/fixedFiles/base_profile.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[32.55-41.64)</t>
+          <t>[33.53-42.89)</t>
         </is>
       </c>
     </row>
